--- a/dataset/year/keys.xlsx
+++ b/dataset/year/keys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdmms/Downloads/visualization/visutalization/dataset/year/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mscs\visutalization\dataset\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD85E2D-2379-B049-837A-859E85C41226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F0D0F-CA74-49BA-984C-ACAC2CA1966A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{19A49C19-652D-4839-922F-3D14A1FDA5C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19A49C19-652D-4839-922F-3D14A1FDA5C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="121">
   <si>
     <t>房地产开发企业个数</t>
   </si>
@@ -205,9 +205,6 @@
     <t>其他商品房销售面积(万平方米)</t>
   </si>
   <si>
-    <t>商品房平均销售价格(元/平方米)</t>
-  </si>
-  <si>
     <t>住宅商品房平均销售价格(元/平方米)</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
   </si>
   <si>
     <t>房地产开发企业其他收入(亿元)</t>
-  </si>
-  <si>
-    <t>房地产开发企业主营业务税金及附加(亿元)</t>
   </si>
   <si>
     <t>500万元以下房地产开发投资额(亿元)</t>
@@ -361,14 +355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>房地产开发企业个数 (Map+Line)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>房地产开发企业从业人员数 (Map+Line)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>房地产开发投资额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -476,113 +462,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="STFangsong"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>商品房销售面积</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="STFangsong"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>万平方米</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="STFangsong"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>按用途分商品房平均销售价格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Table)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="STFangsong"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>按用途分商品房销售面积</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Line &amp; Bar)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="STFangsong"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>按用途分商品房销售额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Line &amp; Bar)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>房地产开发企业房屋建筑面积竣工率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -639,12 +518,113 @@
     <t>房地产开发企业土地开发及购置 (Line &amp; Pie)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="STFangsong"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>商品房销售面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="STFangsong"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>万平方米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产开发企业个数 (Bar+Line)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产开发企业从业人员数 (Bar+Line)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产开发企业主营业务税金及附加(亿元)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品房平均销售价格(元/平方米)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="STFangsong"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>按用途分商品房平均销售价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Table, comparison)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="STFangsong"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>按用途分商品房销售面积/额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Map + Stacked)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +771,19 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="华文仿宋"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -821,7 +814,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +851,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,23 +875,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,37 +1204,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F10173-0541-443E-A12E-EE5FA9359E2E}">
   <dimension ref="A1:O16393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1">
-      <c r="A1" s="14" t="s">
-        <v>82</v>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.6">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1259,10 +1258,10 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="15.6">
+      <c r="A2" s="19"/>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -1277,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1288,31 +1287,31 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19" t="s">
-        <v>110</v>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="15.6">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>109</v>
+      <c r="C3" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J3"/>
       <c r="K3" s="1"/>
@@ -1321,31 +1320,31 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
-        <v>120</v>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="15.6">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4"/>
       <c r="K4" s="1"/>
@@ -1354,7 +1353,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1">
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="14.4">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -1370,10 +1369,10 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1">
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1389,9 +1388,9 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1">
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="15.6">
       <c r="A7" s="7"/>
-      <c r="B7"/>
+      <c r="B7" s="2"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -1406,15 +1405,15 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1">
-      <c r="A8" s="12" t="s">
-        <v>83</v>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>81</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>113</v>
+      <c r="B8" s="23" t="s">
+        <v>120</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>111</v>
+      <c r="C8" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>48</v>
@@ -1439,12 +1438,10 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1470,28 +1467,28 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
-        <v>112</v>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="15.6">
+      <c r="A10" s="17"/>
+      <c r="B10" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10"/>
@@ -1501,22 +1498,22 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" ht="30">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="31.2">
+      <c r="A11" s="17"/>
       <c r="B11" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1550,12 +1547,12 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" ht="30">
-      <c r="A15" s="12" t="s">
-        <v>84</v>
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="31.2">
+      <c r="A15" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -1567,16 +1564,16 @@
         <v>19</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:15" s="6" customFormat="1" ht="14">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:15" s="6" customFormat="1" ht="15.6">
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>24</v>
@@ -1597,7 +1594,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>30</v>
@@ -1606,13 +1603,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:11" ht="15.6">
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>20</v>
@@ -1627,12 +1624,12 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:11" ht="15.6">
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1649,36 +1646,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:11" ht="15.6">
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="J19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
@@ -1689,12 +1686,12 @@
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="14" t="s">
-        <v>85</v>
+    <row r="23" spans="1:11" ht="15.6">
+      <c r="A23" s="18" t="s">
+        <v>83</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>121</v>
+      <c r="B23" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1711,10 +1708,10 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="19" t="s">
-        <v>116</v>
+    <row r="24" spans="1:11" ht="15.6">
+      <c r="A24" s="18"/>
+      <c r="B24" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
@@ -1722,21 +1719,21 @@
       <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>115</v>
+      <c r="E24" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>118</v>
+      <c r="G24" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19" t="s">
-        <v>119</v>
+    <row r="25" spans="1:11" ht="15.6">
+      <c r="A25" s="19"/>
+      <c r="B25" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -1751,10 +1748,10 @@
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="19" t="s">
-        <v>117</v>
+    <row r="26" spans="1:11" ht="15.6">
+      <c r="A26" s="19"/>
+      <c r="B26" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>36</v>
@@ -1780,45 +1777,45 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="8" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="8" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="8" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="8" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" ht="15.6">
       <c r="A38" s="2"/>
     </row>
     <row r="43" spans="1:1">
@@ -50872,15 +50869,16 @@
       <c r="A16393" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset/year/keys.xlsx
+++ b/dataset/year/keys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\mscs\visutalization\dataset\year\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F0D0F-CA74-49BA-984C-ACAC2CA1966A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164A6056-0B6E-46B1-8E78-A8BEEB6B2DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19A49C19-652D-4839-922F-3D14A1FDA5C0}"/>
   </bookViews>
@@ -863,6 +863,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -880,9 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F10173-0541-443E-A12E-EE5FA9359E2E}">
   <dimension ref="A1:O16393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -1228,7 +1228,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="15.6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1259,7 +1259,7 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="15.6">
-      <c r="A2" s="19"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="2" t="s">
         <v>116</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="15.6">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="14" t="s">
         <v>106</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="15.6">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="12" t="s">
         <v>112</v>
       </c>
@@ -1406,13 +1406,13 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1439,7 +1439,7 @@
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="23"/>
       <c r="C9" s="11" t="s">
         <v>42</v>
@@ -1468,7 +1468,7 @@
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="15.6">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="12" t="s">
         <v>119</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="31.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
         <v>93</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="J14"/>
     </row>
     <row r="15" spans="1:15" s="6" customFormat="1" ht="31.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1571,7 +1571,7 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:15" s="6" customFormat="1" ht="15.6">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>100</v>
       </c>
@@ -1604,11 +1604,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>95</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1625,11 +1625,11 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="15.6">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1647,11 +1647,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="5" t="s">
         <v>65</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:11" ht="15.6">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1709,7 +1709,7 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="15.6">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="14" t="s">
         <v>108</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="15.6">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="14" t="s">
         <v>111</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="15.6">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="14" t="s">
         <v>109</v>
       </c>
